--- a/w2e_events.xlsx
+++ b/w2e_events.xlsx
@@ -463,11 +463,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T0:Security update: Our new firewall system is now operational, providing enhanced protection against cyber threats. #Firewall
-T1:Breaking: Major security incident reported at the city's financial district. Authorities are on the scene. #SecurityIncident
-T2:Just attended an informative cybersecurity conference on the latest threats and vulnerabilities. #Cybersecurity #Event
-T3:Just attended an informative cybersecurity conference on the latest threats and vulnerabilities. #Cybersecurity #Event
-T4:Security announcement: The office will be closed tomorrow for a security upgrade. Stay safe and have a great day! #OfficeClosure</t>
+          <t>T0:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
+T1:Stay safe online, folks! Make sure your passwords are strong and regularly updated. #OnlineSecurity
+T2:It's a good time to review your disaster recovery plan. Preparation is the key to resilience in case of unexpected events. #DisasterRecovery
+T3:The company's physical security measures have been enhanced to restrict access to authorized personnel only. #PhysicalSecurity
+T4:The city is hosting a disaster preparedness workshop this weekend. Don't miss it if you're in town. #DisasterPrep</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T0:In light of recent security threats, we're conducting a company-wide security training session next week. #SecurityAwareness
-T1:Data breach at a major tech company, millions of user records exposed. #DataBreach #Security
-T2:Don't click on suspicious links or download attachments from unknown sources. Stay vigilant against phishing attempts. #Phishing
-T3:It's a good time to review your disaster recovery plan. Preparation is the key to resilience in case of unexpected events. #DisasterRecovery
-T4:Security update: Our new firewall system is now operational, providing enhanced protection against cyber threats. #Firewall</t>
+          <t>T0:An important reminder: Secure your Wi-Fi network with a strong password and encryption. #WiFiSecurity
+T1:There's a security drill happening at the office today. It's essential to be prepared for emergencies. #SafetyFirst
+T2:In light of recent security threats, we're conducting a company-wide security training session next week. #SecurityAwareness
+T3:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
+T4:Stay safe on the internet. Regularly update your antivirus software to protect against malware and viruses. #Antivirus</t>
         </is>
       </c>
     </row>
@@ -1097,10 +1097,10 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>T0:An important reminder: Secure your Wi-Fi network with a strong password and encryption. #WiFiSecurity
-T1:Security alert: New malware detected. Ensure your devices have the latest antivirus definitions to stay protected. #Malware
+T1:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
 T2:There's a security drill happening at the office today. It's essential to be prepared for emergencies. #SafetyFirst
-T3:Our security team is monitoring the network for any unusual activity. Vigilance is key to keeping our data safe. #NetworkMonitoring
-T4:Security alert: New malware detected. Ensure your devices have the latest antivirus definitions to stay protected. #Malware</t>
+T3:The city is hosting a disaster preparedness workshop this weekend. Don't miss it if you're in town. #DisasterPrep
+T4:Breaking: Major security incident reported at the city's financial district. Authorities are on the scene. #SecurityIncident</t>
         </is>
       </c>
     </row>
@@ -1650,11 +1650,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>T0:Security experts warn about the rise in phishing attacks targeting businesses. #Phishing #Security
-T1:The city is hosting a disaster preparedness workshop this weekend. Don't miss it if you're in town. #DisasterPrep
-T2:Safety tip: Always verify the identity of callers claiming to be from your bank or other organizations. #SafetyTips
-T3:Breaking News: Data breach at XYZ Corp. Millions of user accounts compromised. #DataBreach
-T4:Security experts warn about the rise in phishing attacks targeting businesses. #Phishing #Security</t>
+          <t>T0:An important reminder: Secure your Wi-Fi network with a strong password and encryption. #WiFiSecurity
+T1:Security alert: New malware detected. Ensure your devices have the latest antivirus definitions to stay protected. #Malware
+T2:The city is hosting a disaster preparedness workshop this weekend. Don't miss it if you're in town. #DisasterPrep
+T3:The city is hosting a disaster preparedness workshop this weekend. Don't miss it if you're in town. #DisasterPrep
+T4:An important reminder: Secure your Wi-Fi network with a strong password and encryption. #WiFiSecurity</t>
         </is>
       </c>
     </row>
@@ -2132,10 +2132,10 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T0:Our security team is monitoring the network for any unusual activity. Vigilance is key to keeping our data safe. #NetworkMonitoring
-T1:Security Event Alert: Join us at the annual Security Symposium next month for expert insights and solutions. #SecuritySymposium
-T2:Data breach at a major tech company, millions of user records exposed. #DataBreach #Security
-T3:New cybersecurity vulnerability discovered in popular software. #Cybersecurity #Vulnerability
+          <t>T0:Security experts warn about the rise in phishing attacks targeting businesses. #Phishing #Security
+T1:Security update: Our new firewall system is now operational, providing enhanced protection against cyber threats. #Firewall
+T2:Security Event Alert: Join us at the annual Security Symposium next month for expert insights and solutions. #SecuritySymposium
+T3:Security alert: New malware detected. Ensure your devices have the latest antivirus definitions to stay protected. #Malware
 T4:Security Event Alert: Join us at the annual Security Symposium next month for expert insights and solutions. #SecuritySymposium</t>
         </is>
       </c>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>T0:Government agencies increase surveillance measures in response to security threats. #Surveillance #Security
-T1:Security update: Our new firewall system is now operational, providing enhanced protection against cyber threats. #Firewall
-T2:Security announcement: The office will be closed tomorrow for a security upgrade. Stay safe and have a great day! #OfficeClosure
-T3:Security conference happening this week, featuring talks on the latest threats and defenses. #SecurityConference
-T4:Our security team is monitoring the network for any unusual activity. Vigilance is key to keeping our data safe. #NetworkMonitoring</t>
+          <t>T0:An important reminder: Secure your Wi-Fi network with a strong password and encryption. #WiFiSecurity
+T1:Security conference happening this week, featuring talks on the latest threats and defenses. #SecurityConference
+T2:Security Event Alert: Join us at the annual Security Symposium next month for expert insights and solutions. #SecuritySymposium
+T3:Organizations urged to update their security protocols following a recent cyber attack. #CyberAttack #Security
+T4:New cybersecurity vulnerability discovered in popular software. #Cybersecurity #Vulnerability</t>
         </is>
       </c>
     </row>
@@ -2765,11 +2765,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>T0:The city is hosting a disaster preparedness workshop this weekend. Don't miss it if you're in town. #DisasterPrep
-T1:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
-T2:Security Event Alert: Join us at the annual Security Symposium next month for expert insights and solutions. #SecuritySymposium
-T3:Stay safe on the internet. Regularly update your antivirus software to protect against malware and viruses. #Antivirus
-T4:Stay safe online, folks! Make sure your passwords are strong and regularly updated. #OnlineSecurity</t>
+          <t>T0:Security announcement: The office will be closed tomorrow for a security upgrade. Stay safe and have a great day! #OfficeClosure
+T1:Stay safe online, folks! Make sure your passwords are strong and regularly updated. #OnlineSecurity
+T2:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
+T3:Security alert: New malware detected. Ensure your devices have the latest antivirus definitions to stay protected. #Malware
+T4:Data breach at a major tech company, millions of user records exposed. #DataBreach #Security</t>
         </is>
       </c>
     </row>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>T0:Government agencies increase surveillance measures in response to security threats. #Surveillance #Security
-T1:Just attended an informative cybersecurity conference on the latest threats and vulnerabilities. #Cybersecurity #Event
+          <t>T0:It's a good time to review your disaster recovery plan. Preparation is the key to resilience in case of unexpected events. #DisasterRecovery
+T1:Don't click on suspicious links or download attachments from unknown sources. Stay vigilant against phishing attempts. #Phishing
 T2:Just attended an informative cybersecurity conference on the latest threats and vulnerabilities. #Cybersecurity #Event
-T3:The company's physical security measures have been enhanced to restrict access to authorized personnel only. #PhysicalSecurity
-T4:Just attended an informative cybersecurity conference on the latest threats and vulnerabilities. #Cybersecurity #Event</t>
+T3:Stay safe on the internet. Regularly update your antivirus software to protect against malware and viruses. #Antivirus
+T4:It's a good time to review your disaster recovery plan. Preparation is the key to resilience in case of unexpected events. #DisasterRecovery</t>
         </is>
       </c>
     </row>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>T0:An important reminder: Secure your Wi-Fi network with a strong password and encryption. #WiFiSecurity
-T1:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
-T2:Breaking: Major security incident reported at the city's financial district. Authorities are on the scene. #SecurityIncident
-T3:Security alert: New malware detected. Ensure your devices have the latest antivirus definitions to stay protected. #Malware
-T4:Our security team is monitoring the network for any unusual activity. Vigilance is key to keeping our data safe. #NetworkMonitoring</t>
+          <t>T0:Breaking: Major security incident reported at the city's financial district. Authorities are on the scene. #SecurityIncident
+T1:The company's physical security measures have been enhanced to restrict access to authorized personnel only. #PhysicalSecurity
+T2:Stay informed about security best practices. It's everyone's responsibility to protect sensitive information. #InfoSec
+T3:Breaking: Major security incident reported at the city's financial district. Authorities are on the scene. #SecurityIncident
+T4:Stay safe on the internet. Regularly update your antivirus software to protect against malware and viruses. #Antivirus</t>
         </is>
       </c>
     </row>
